--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\311-19(student)\Desktop\Ychitel-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FFA4A57-C7ED-46EE-988B-FD356ED74E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69D06CB-CF48-42A4-8FF5-2591B423C2A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{818DAD0D-3D56-4FC4-BF2F-8D8B31670183}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Requirements ID</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Req_8</t>
   </si>
   <si>
+    <t>Req_9</t>
+  </si>
+  <si>
     <t>Авторизация</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t>TC_2</t>
   </si>
   <si>
-    <t>нарушение области допустимых значений при вводе показателей</t>
-  </si>
-  <si>
     <t>стратегия тестирования (вид тестирования )</t>
   </si>
   <si>
@@ -110,9 +110,6 @@
     <t>Критерии окончани я тестирования</t>
   </si>
   <si>
-    <t>Создание жильца без ФИО</t>
-  </si>
-  <si>
     <t>TC_3</t>
   </si>
   <si>
@@ -134,15 +131,6 @@
     <t>Модульный</t>
   </si>
   <si>
-    <t>Определяет роль пользователя</t>
-  </si>
-  <si>
-    <t>неправильный формат ввода данных в поле «Логин» при авторизации</t>
-  </si>
-  <si>
-    <t>Проверка корректности числовой оценки от 2 до 5</t>
-  </si>
-  <si>
     <t>Проверка на наличие информации во всех полях</t>
   </si>
   <si>
@@ -153,6 +141,24 @@
   </si>
   <si>
     <t>Удаления по индификатору</t>
+  </si>
+  <si>
+    <t>Проверка корректности  оценки (число от 2 до 5)</t>
+  </si>
+  <si>
+    <t>Проверка правительности определения роли пользователя (проверка роли студента, проверка роли преподавателя)</t>
+  </si>
+  <si>
+    <t>Создание нового студента ( без ФИО, все поля заполнены)</t>
+  </si>
+  <si>
+    <t>Проверка корректности фильтрации по группе)</t>
+  </si>
+  <si>
+    <t>Фильтрация</t>
+  </si>
+  <si>
+    <t>неправильный формат ввода данных в поле «Логин» при авторизации (пустые поля, заполненные поля)</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -255,9 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -582,7 +585,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,11 +663,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -677,7 +685,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>23</v>
@@ -712,13 +720,13 @@
     </row>
     <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -726,34 +734,34 @@
     </row>
     <row r="3" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -762,10 +770,10 @@
     </row>
     <row r="6" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -774,10 +782,10 @@
     </row>
     <row r="7" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,10 +794,10 @@
     </row>
     <row r="8" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -798,10 +806,10 @@
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -809,7 +817,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -826,7 +834,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,33 +845,33 @@
     <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -878,7 +886,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -886,18 +894,18 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -905,20 +913,18 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -926,18 +932,16 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -947,16 +951,16 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -969,11 +973,11 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -988,9 +992,9 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1004,10 +1008,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1021,23 +1025,25 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
